--- a/_ToDo/Scoring Matrix.xlsx
+++ b/_ToDo/Scoring Matrix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/loicveirman/Documents/GitHub/Pimp-My-Directory/_ToDo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{152696DD-1B78-7E43-B1F7-7F3CA05855F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28550797-4DD2-C34C-B469-4FD48B1AF0CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26400" yWindow="540" windowWidth="50640" windowHeight="28220" xr2:uid="{65454DCD-A632-5C41-82AD-606BA14167F1}"/>
+    <workbookView xWindow="1040" yWindow="540" windowWidth="25320" windowHeight="28220" xr2:uid="{65454DCD-A632-5C41-82AD-606BA14167F1}"/>
   </bookViews>
   <sheets>
     <sheet name="HmD 1.0.0" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
   <si>
     <t>SCORING MATRIX</t>
   </si>
@@ -148,7 +148,7 @@
       <name val="Poppins-Light"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -172,6 +172,29 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="lightUp">
+        <fgColor theme="0" tint="-0.24994659260841701"/>
+        <bgColor theme="2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightUp">
+        <fgColor theme="0" tint="-0.24994659260841701"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightUp">
+        <fgColor theme="7"/>
+        <bgColor theme="2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightUp">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="16">
     <border>
@@ -367,7 +390,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
@@ -376,19 +399,58 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
@@ -397,47 +459,41 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -446,58 +502,7 @@
     <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
     <cellStyle name="Titre" xfId="2" builtinId="15"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -713,39 +718,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A1518DF-B98A-CB44-9D73-BA4BD0420A53}">
-  <dimension ref="A1:T14"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22"/>
   <cols>
     <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="15" width="7.77734375" customWidth="1"/>
+    <col min="2" max="11" width="7.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="30" thickBot="1">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:16" ht="30" thickBot="1">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-    </row>
-    <row r="2" spans="1:20" ht="23" thickTop="1"/>
-    <row r="3" spans="1:20">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+    </row>
+    <row r="2" spans="1:16" ht="23" thickTop="1"/>
+    <row r="3" spans="1:16">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -754,294 +755,240 @@
       </c>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:20">
-      <c r="Q4" t="s">
+    <row r="4" spans="1:16">
+      <c r="M4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
-      <c r="A5" s="20" t="s">
+    <row r="5" spans="1:16">
+      <c r="A5" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="4" t="s">
+      <c r="C5" s="21"/>
+      <c r="D5" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="6" t="s">
+      <c r="E5" s="21"/>
+      <c r="F5" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="4" t="s">
+      <c r="G5" s="21"/>
+      <c r="H5" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="5"/>
-      <c r="J5" s="6" t="s">
+      <c r="I5" s="21"/>
+      <c r="J5" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="5"/>
-      <c r="L5" s="4" t="s">
+      <c r="K5" s="21"/>
+      <c r="M5" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="19"/>
+      <c r="B6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="25"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="32"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="27"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="9">
+        <v>0</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="35"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="29"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="13"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="5"/>
-      <c r="N5" s="4" t="s">
+      <c r="B10" s="27"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="10"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="O5" s="5"/>
-      <c r="Q5" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" s="21"/>
-      <c r="B6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="M6" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="O6" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="10"/>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="12"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="10"/>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="14">
-        <v>0.15</v>
-      </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="15"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="10"/>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="18"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="10"/>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="15"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="10"/>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="12"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="10"/>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" s="23" t="s">
+      <c r="B11" s="25"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="7"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="15"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="10"/>
-      <c r="S12" s="10"/>
-      <c r="T12" s="10"/>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" s="22" t="s">
+      <c r="B12" s="27"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="10"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="12"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="10"/>
-      <c r="T13" s="10"/>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" s="23" t="s">
+      <c r="B13" s="25"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="7"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="15"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="10"/>
-      <c r="T14" s="10"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="10"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="8">
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="B5:C5"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="Q5:T14"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="M5:P14"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="F5:G5"/>

--- a/_ToDo/Scoring Matrix.xlsx
+++ b/_ToDo/Scoring Matrix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/loicveirman/Documents/GitHub/Pimp-My-Directory/_ToDo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28550797-4DD2-C34C-B469-4FD48B1AF0CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D19869F-46E6-3B45-8DC7-434F6D76D04E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="540" windowWidth="25320" windowHeight="28220" xr2:uid="{65454DCD-A632-5C41-82AD-606BA14167F1}"/>
+    <workbookView xWindow="26380" yWindow="540" windowWidth="50640" windowHeight="28220" xr2:uid="{65454DCD-A632-5C41-82AD-606BA14167F1}"/>
   </bookViews>
   <sheets>
     <sheet name="HmD 1.0.0" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
   <si>
     <t>SCORING MATRIX</t>
   </si>
@@ -87,18 +87,46 @@
   </si>
   <si>
     <t>Notes:</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>Advise Sol.</t>
+  </si>
+  <si>
+    <t>WinSrv 2019 en</t>
+  </si>
+  <si>
+    <t>Alert Fix List</t>
+  </si>
+  <si>
+    <t>Alert</t>
+  </si>
+  <si>
+    <t>P-Delegated</t>
+  </si>
+  <si>
+    <t>A-MinPwdLen</t>
+  </si>
+  <si>
+    <t>Could not be done through a cmdlet. Find an alternative.</t>
+  </si>
+  <si>
+    <t>Check code, seems to work only on 2022. Works on second run.</t>
   </si>
   <si>
     <t>PingCastle compute a risk exposure (target: 0%).
 The Forest is raised to its highest FFL.
-The test Domain contain two DC.</t>
+The test Domain contain two DC.
+Windows 2012 R2 needs to be updated to PowserShell 5.0, else the modules will fail to load.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="14"/>
       <color theme="1"/>
@@ -146,6 +174,11 @@
       <sz val="14"/>
       <color theme="1" tint="0.499984740745262"/>
       <name val="Poppins-Light"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Poppins-Light"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -390,7 +423,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
@@ -493,6 +526,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="8" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -513,6 +564,19 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{74A0EFC9-44C1-8542-A79B-ABEE2E27F50F}" name="Tableau1" displayName="Tableau1" ref="R5:U7" totalsRowShown="0">
+  <autoFilter ref="R5:U7" xr:uid="{74A0EFC9-44C1-8542-A79B-ABEE2E27F50F}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{618D3CCF-1CED-7C4A-8418-5829ED2B56C9}" name="OS"/>
+    <tableColumn id="2" xr3:uid="{D6659A65-2B54-2349-842B-34CA3657B08B}" name="DFL"/>
+    <tableColumn id="3" xr3:uid="{492BE08A-F01D-9345-8055-76B3C5D00BF2}" name="Alert"/>
+    <tableColumn id="4" xr3:uid="{61A8E3D9-0DA4-F443-A20D-32E019DD63E8}" name="Advise Sol."/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -718,19 +782,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A1518DF-B98A-CB44-9D73-BA4BD0420A53}">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="J9" sqref="J9:K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22"/>
   <cols>
     <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="11" width="7.77734375" customWidth="1"/>
+    <col min="18" max="18" width="16" customWidth="1"/>
+    <col min="19" max="19" width="11.77734375" customWidth="1"/>
+    <col min="20" max="20" width="18.6640625" customWidth="1"/>
+    <col min="21" max="21" width="62.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="30" thickBot="1">
+    <row r="1" spans="1:21" ht="30" thickBot="1">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
@@ -745,8 +813,8 @@
       <c r="J1" s="22"/>
       <c r="K1" s="22"/>
     </row>
-    <row r="2" spans="1:16" ht="23" thickTop="1"/>
-    <row r="3" spans="1:16">
+    <row r="2" spans="1:21" ht="23" thickTop="1"/>
+    <row r="3" spans="1:21">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -755,12 +823,15 @@
       </c>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:21">
       <c r="M4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="R4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5" s="18" t="s">
         <v>3</v>
       </c>
@@ -785,13 +856,25 @@
       </c>
       <c r="K5" s="21"/>
       <c r="M5" s="23" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="N5" s="23"/>
       <c r="O5" s="23"/>
       <c r="P5" s="23"/>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="R5" t="s">
+        <v>17</v>
+      </c>
+      <c r="S5" t="s">
+        <v>3</v>
+      </c>
+      <c r="T5" t="s">
+        <v>21</v>
+      </c>
+      <c r="U5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6" s="19"/>
       <c r="B6" s="4" t="s">
         <v>10</v>
@@ -827,8 +910,20 @@
       <c r="N6" s="23"/>
       <c r="O6" s="23"/>
       <c r="P6" s="23"/>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="R6" t="s">
+        <v>19</v>
+      </c>
+      <c r="S6" t="s">
+        <v>6</v>
+      </c>
+      <c r="T6" t="s">
+        <v>22</v>
+      </c>
+      <c r="U6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7" s="15" t="s">
         <v>12</v>
       </c>
@@ -846,8 +941,20 @@
       <c r="N7" s="23"/>
       <c r="O7" s="23"/>
       <c r="P7" s="23"/>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="R7" t="s">
+        <v>19</v>
+      </c>
+      <c r="S7" t="s">
+        <v>6</v>
+      </c>
+      <c r="T7" t="s">
+        <v>23</v>
+      </c>
+      <c r="U7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
       <c r="A8" s="16" t="s">
         <v>6</v>
       </c>
@@ -857,7 +964,9 @@
         <v>0</v>
       </c>
       <c r="E8" s="10"/>
-      <c r="F8" s="9"/>
+      <c r="F8" s="9">
+        <v>0.2</v>
+      </c>
       <c r="G8" s="11"/>
       <c r="H8" s="9"/>
       <c r="I8" s="10"/>
@@ -868,7 +977,7 @@
       <c r="O8" s="23"/>
       <c r="P8" s="23"/>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:21">
       <c r="A9" s="17" t="s">
         <v>7</v>
       </c>
@@ -880,14 +989,14 @@
       <c r="G9" s="14"/>
       <c r="H9" s="12"/>
       <c r="I9" s="13"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="13"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="37"/>
       <c r="M9" s="23"/>
       <c r="N9" s="23"/>
       <c r="O9" s="23"/>
       <c r="P9" s="23"/>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:21">
       <c r="A10" s="16" t="s">
         <v>8</v>
       </c>
@@ -899,14 +1008,14 @@
       <c r="G10" s="11"/>
       <c r="H10" s="9"/>
       <c r="I10" s="10"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="10"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="39"/>
       <c r="M10" s="23"/>
       <c r="N10" s="23"/>
       <c r="O10" s="23"/>
       <c r="P10" s="23"/>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:21">
       <c r="A11" s="15" t="s">
         <v>9</v>
       </c>
@@ -918,14 +1027,14 @@
       <c r="G11" s="8"/>
       <c r="H11" s="6"/>
       <c r="I11" s="7"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="7"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="41"/>
       <c r="M11" s="23"/>
       <c r="N11" s="23"/>
       <c r="O11" s="23"/>
       <c r="P11" s="23"/>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:21">
       <c r="A12" s="16" t="s">
         <v>13</v>
       </c>
@@ -937,14 +1046,14 @@
       <c r="G12" s="11"/>
       <c r="H12" s="9"/>
       <c r="I12" s="10"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="10"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="39"/>
       <c r="M12" s="23"/>
       <c r="N12" s="23"/>
       <c r="O12" s="23"/>
       <c r="P12" s="23"/>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:21">
       <c r="A13" s="15" t="s">
         <v>14</v>
       </c>
@@ -956,14 +1065,14 @@
       <c r="G13" s="8"/>
       <c r="H13" s="6"/>
       <c r="I13" s="7"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="7"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="41"/>
       <c r="M13" s="23"/>
       <c r="N13" s="23"/>
       <c r="O13" s="23"/>
       <c r="P13" s="23"/>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:21">
       <c r="A14" s="16" t="s">
         <v>15</v>
       </c>
@@ -975,8 +1084,8 @@
       <c r="G14" s="11"/>
       <c r="H14" s="9"/>
       <c r="I14" s="10"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="10"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="39"/>
       <c r="M14" s="23"/>
       <c r="N14" s="23"/>
       <c r="O14" s="23"/>
@@ -994,5 +1103,8 @@
     <mergeCell ref="F5:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/_ToDo/Scoring Matrix.xlsx
+++ b/_ToDo/Scoring Matrix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/loicveirman/Documents/GitHub/Pimp-My-Directory/_ToDo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D19869F-46E6-3B45-8DC7-434F6D76D04E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A99A4455-9B33-154E-BBBE-75300CC8EF78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="26380" yWindow="540" windowWidth="50640" windowHeight="28220" xr2:uid="{65454DCD-A632-5C41-82AD-606BA14167F1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="35">
   <si>
     <t>SCORING MATRIX</t>
   </si>
@@ -114,19 +114,43 @@
   </si>
   <si>
     <t>Check code, seems to work only on 2022. Works on second run.</t>
+  </si>
+  <si>
+    <t>KO</t>
   </si>
   <si>
     <t>PingCastle compute a risk exposure (target: 0%).
 The Forest is raised to its highest FFL.
 The test Domain contain two DC.
 Windows 2012 R2 needs to be updated to PowserShell 5.0, else the modules will fail to load.</t>
+  </si>
+  <si>
+    <t>WinSrv 2016 en</t>
+  </si>
+  <si>
+    <t>S-SMB-v1</t>
+  </si>
+  <si>
+    <t>SMBv1 have to be disabled forcefully.</t>
+  </si>
+  <si>
+    <t>S-DC-SubnetMissing</t>
+  </si>
+  <si>
+    <t>IPv6 subnet are not yet added… This concern all OS ;)</t>
+  </si>
+  <si>
+    <t>A-LAPS-Not-Installed</t>
+  </si>
+  <si>
+    <t>LAPS installation has failed (error on screen)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="12">
     <font>
       <sz val="14"/>
       <color theme="1"/>
@@ -176,7 +200,26 @@
       <name val="Poppins-Light"/>
     </font>
     <font>
+      <b/>
       <sz val="14"/>
+      <color rgb="FF00B050"/>
+      <name val="Poppins-Light"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Poppins-Light"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Poppins-Light"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Poppins-Light"/>
       <family val="2"/>
     </font>
@@ -423,7 +466,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
@@ -438,33 +481,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
@@ -528,24 +544,55 @@
     <xf numFmtId="9" fontId="0" fillId="8" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Calcul" xfId="3" builtinId="22"/>
@@ -567,8 +614,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{74A0EFC9-44C1-8542-A79B-ABEE2E27F50F}" name="Tableau1" displayName="Tableau1" ref="R5:U7" totalsRowShown="0">
-  <autoFilter ref="R5:U7" xr:uid="{74A0EFC9-44C1-8542-A79B-ABEE2E27F50F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{74A0EFC9-44C1-8542-A79B-ABEE2E27F50F}" name="Tableau1" displayName="Tableau1" ref="R5:U11" totalsRowShown="0">
+  <autoFilter ref="R5:U11" xr:uid="{74A0EFC9-44C1-8542-A79B-ABEE2E27F50F}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{618D3CCF-1CED-7C4A-8418-5829ED2B56C9}" name="OS"/>
     <tableColumn id="2" xr3:uid="{D6659A65-2B54-2349-842B-34CA3657B08B}" name="DFL"/>
@@ -785,7 +832,7 @@
   <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9:K14"/>
+      <selection activeCell="T25" sqref="T25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22"/>
@@ -799,19 +846,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="30" thickBot="1">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
     </row>
     <row r="2" spans="1:21" ht="23" thickTop="1"/>
     <row r="3" spans="1:21">
@@ -832,35 +879,35 @@
       </c>
     </row>
     <row r="5" spans="1:21">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="20" t="s">
+      <c r="C5" s="12"/>
+      <c r="D5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="21"/>
-      <c r="F5" s="24" t="s">
+      <c r="E5" s="12"/>
+      <c r="F5" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="21"/>
-      <c r="H5" s="20" t="s">
+      <c r="G5" s="12"/>
+      <c r="H5" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="21"/>
-      <c r="J5" s="20" t="s">
+      <c r="I5" s="12"/>
+      <c r="J5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="21"/>
-      <c r="M5" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
+      <c r="K5" s="12"/>
+      <c r="M5" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
       <c r="R5" t="s">
         <v>17</v>
       </c>
@@ -875,7 +922,7 @@
       </c>
     </row>
     <row r="6" spans="1:21">
-      <c r="A6" s="19"/>
+      <c r="A6" s="10"/>
       <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
@@ -906,41 +953,41 @@
       <c r="K6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="R6" t="s">
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="R6" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="S6" t="s">
+      <c r="S6" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="T6" t="s">
+      <c r="T6" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="U6" t="s">
+      <c r="U6" s="43" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:21">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="32"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="23"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
       <c r="R7" t="s">
         <v>19</v>
       </c>
@@ -955,141 +1002,213 @@
       </c>
     </row>
     <row r="8" spans="1:21">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="9">
+      <c r="B8" s="18"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="27">
         <v>0</v>
       </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="9">
-        <v>0.2</v>
-      </c>
-      <c r="G8" s="11"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="35"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="G8" s="30"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="26"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="R8" t="s">
+        <v>28</v>
+      </c>
+      <c r="S8" t="s">
+        <v>6</v>
+      </c>
+      <c r="T8" t="s">
+        <v>23</v>
+      </c>
+      <c r="U8" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="9" spans="1:21">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="29"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="37"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="R9" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="S9" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="T9" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="U9" s="43" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="10" spans="1:21">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="39"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="K10" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="R10" t="s">
+        <v>28</v>
+      </c>
+      <c r="S10" t="s">
+        <v>6</v>
+      </c>
+      <c r="T10" t="s">
+        <v>31</v>
+      </c>
+      <c r="U10" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="11" spans="1:21">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="41"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="R11" t="s">
+        <v>28</v>
+      </c>
+      <c r="S11" t="s">
+        <v>6</v>
+      </c>
+      <c r="T11" t="s">
+        <v>33</v>
+      </c>
+      <c r="U11" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="12" spans="1:21">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="39"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="K12" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
     </row>
     <row r="13" spans="1:21">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="41"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="23"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="K13" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
     </row>
     <row r="14" spans="1:21">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="27"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="39"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="23"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="K14" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/_ToDo/Scoring Matrix.xlsx
+++ b/_ToDo/Scoring Matrix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/loicveirman/Documents/GitHub/Pimp-My-Directory/_ToDo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A99A4455-9B33-154E-BBBE-75300CC8EF78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E279F715-1F19-1D4F-A915-8F6EAC9CB72E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="26380" yWindow="540" windowWidth="50640" windowHeight="28220" xr2:uid="{65454DCD-A632-5C41-82AD-606BA14167F1}"/>
   </bookViews>
@@ -212,16 +212,17 @@
       <name val="Poppins-Light"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <name val="Poppins-Light"/>
-    </font>
-    <font>
       <strike/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Poppins-Light"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="4"/>
+      <name val="Poppins-Light"/>
     </font>
   </fonts>
   <fills count="9">
@@ -574,25 +575,25 @@
     <xf numFmtId="9" fontId="9" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="11" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Calcul" xfId="3" builtinId="22"/>
@@ -832,7 +833,7 @@
   <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="T25" sqref="T25"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22"/>
@@ -957,16 +958,16 @@
       <c r="N6" s="14"/>
       <c r="O6" s="14"/>
       <c r="P6" s="14"/>
-      <c r="R6" s="43" t="s">
+      <c r="R6" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="S6" s="43" t="s">
+      <c r="S6" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="T6" s="43" t="s">
+      <c r="T6" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="U6" s="43" t="s">
+      <c r="U6" s="37" t="s">
         <v>25</v>
       </c>
     </row>
@@ -988,16 +989,16 @@
       <c r="N7" s="14"/>
       <c r="O7" s="14"/>
       <c r="P7" s="14"/>
-      <c r="R7" t="s">
+      <c r="R7" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="S7" t="s">
+      <c r="S7" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="T7" t="s">
+      <c r="T7" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="U7" t="s">
+      <c r="U7" s="37" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1012,10 +1013,12 @@
       </c>
       <c r="E8" s="28"/>
       <c r="F8" s="27">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="30"/>
-      <c r="H8" s="29"/>
+      <c r="H8" s="27">
+        <v>0</v>
+      </c>
       <c r="I8" s="28"/>
       <c r="J8" s="25"/>
       <c r="K8" s="26"/>
@@ -1023,16 +1026,16 @@
       <c r="N8" s="14"/>
       <c r="O8" s="14"/>
       <c r="P8" s="14"/>
-      <c r="R8" t="s">
+      <c r="R8" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="S8" t="s">
+      <c r="S8" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="T8" t="s">
+      <c r="T8" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="U8" t="s">
+      <c r="U8" s="37" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1048,26 +1051,26 @@
       <c r="G9" s="33"/>
       <c r="H9" s="31"/>
       <c r="I9" s="32"/>
-      <c r="J9" s="37" t="s">
+      <c r="J9" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="K9" s="38" t="s">
+      <c r="K9" s="39" t="s">
         <v>26</v>
       </c>
       <c r="M9" s="14"/>
       <c r="N9" s="14"/>
       <c r="O9" s="14"/>
       <c r="P9" s="14"/>
-      <c r="R9" s="43" t="s">
+      <c r="R9" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="S9" s="43" t="s">
+      <c r="S9" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="T9" s="43" t="s">
+      <c r="T9" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="U9" s="43" t="s">
+      <c r="U9" s="37" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1083,26 +1086,26 @@
       <c r="G10" s="30"/>
       <c r="H10" s="29"/>
       <c r="I10" s="28"/>
-      <c r="J10" s="39" t="s">
+      <c r="J10" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="K10" s="40" t="s">
+      <c r="K10" s="41" t="s">
         <v>26</v>
       </c>
       <c r="M10" s="14"/>
       <c r="N10" s="14"/>
       <c r="O10" s="14"/>
       <c r="P10" s="14"/>
-      <c r="R10" t="s">
+      <c r="R10" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="S10" t="s">
+      <c r="S10" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="T10" t="s">
+      <c r="T10" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="U10" t="s">
+      <c r="U10" s="37" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1118,26 +1121,26 @@
       <c r="G11" s="36"/>
       <c r="H11" s="34"/>
       <c r="I11" s="35"/>
-      <c r="J11" s="41" t="s">
+      <c r="J11" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="K11" s="42" t="s">
+      <c r="K11" s="43" t="s">
         <v>26</v>
       </c>
       <c r="M11" s="14"/>
       <c r="N11" s="14"/>
       <c r="O11" s="14"/>
       <c r="P11" s="14"/>
-      <c r="R11" t="s">
+      <c r="R11" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="S11" t="s">
+      <c r="S11" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="T11" t="s">
+      <c r="T11" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="U11" t="s">
+      <c r="U11" s="37" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1153,10 +1156,10 @@
       <c r="G12" s="30"/>
       <c r="H12" s="29"/>
       <c r="I12" s="28"/>
-      <c r="J12" s="39" t="s">
+      <c r="J12" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="K12" s="40" t="s">
+      <c r="K12" s="41" t="s">
         <v>26</v>
       </c>
       <c r="M12" s="14"/>
@@ -1176,10 +1179,10 @@
       <c r="G13" s="36"/>
       <c r="H13" s="34"/>
       <c r="I13" s="35"/>
-      <c r="J13" s="41" t="s">
+      <c r="J13" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="K13" s="42" t="s">
+      <c r="K13" s="43" t="s">
         <v>26</v>
       </c>
       <c r="M13" s="14"/>
@@ -1199,10 +1202,10 @@
       <c r="G14" s="30"/>
       <c r="H14" s="29"/>
       <c r="I14" s="28"/>
-      <c r="J14" s="39" t="s">
+      <c r="J14" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="K14" s="40" t="s">
+      <c r="K14" s="41" t="s">
         <v>26</v>
       </c>
       <c r="M14" s="14"/>

--- a/_ToDo/Scoring Matrix.xlsx
+++ b/_ToDo/Scoring Matrix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/loicveirman/Documents/GitHub/Pimp-My-Directory/_ToDo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E279F715-1F19-1D4F-A915-8F6EAC9CB72E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA4A346C-85B1-2342-BB7F-15AC46C095DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="26380" yWindow="540" windowWidth="50640" windowHeight="28220" xr2:uid="{65454DCD-A632-5C41-82AD-606BA14167F1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="34">
   <si>
     <t>SCORING MATRIX</t>
   </si>
@@ -81,9 +81,6 @@
   </si>
   <si>
     <t>Win Srv 2003</t>
-  </si>
-  <si>
-    <t>Win Srv 2000</t>
   </si>
   <si>
     <t>Notes:</t>
@@ -150,7 +147,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="14"/>
       <color theme="1"/>
@@ -218,14 +215,8 @@
       <name val="Poppins-Light"/>
       <family val="2"/>
     </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="4"/>
-      <name val="Poppins-Light"/>
-    </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -263,13 +254,8 @@
     </fill>
     <fill>
       <patternFill patternType="lightUp">
-        <fgColor theme="7"/>
+        <fgColor theme="4"/>
         <bgColor theme="2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="lightUp">
-        <fgColor theme="7"/>
       </patternFill>
     </fill>
   </fills>
@@ -467,7 +453,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
@@ -491,6 +477,55 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
@@ -512,24 +547,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="5" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="7" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -537,61 +554,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="8" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="8" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="11" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -615,8 +577,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{74A0EFC9-44C1-8542-A79B-ABEE2E27F50F}" name="Tableau1" displayName="Tableau1" ref="R5:U11" totalsRowShown="0">
-  <autoFilter ref="R5:U11" xr:uid="{74A0EFC9-44C1-8542-A79B-ABEE2E27F50F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{74A0EFC9-44C1-8542-A79B-ABEE2E27F50F}" name="Tableau1" displayName="Tableau1" ref="P5:S11" totalsRowShown="0">
+  <autoFilter ref="P5:S11" xr:uid="{74A0EFC9-44C1-8542-A79B-ABEE2E27F50F}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{618D3CCF-1CED-7C4A-8418-5829ED2B56C9}" name="OS"/>
     <tableColumn id="2" xr3:uid="{D6659A65-2B54-2349-842B-34CA3657B08B}" name="DFL"/>
@@ -830,39 +792,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A1518DF-B98A-CB44-9D73-BA4BD0420A53}">
-  <dimension ref="A1:U14"/>
+  <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22"/>
   <cols>
     <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="11" width="7.77734375" customWidth="1"/>
-    <col min="18" max="18" width="16" customWidth="1"/>
-    <col min="19" max="19" width="11.77734375" customWidth="1"/>
-    <col min="20" max="20" width="18.6640625" customWidth="1"/>
-    <col min="21" max="21" width="62.21875" customWidth="1"/>
+    <col min="2" max="9" width="7.77734375" customWidth="1"/>
+    <col min="16" max="16" width="16" customWidth="1"/>
+    <col min="17" max="17" width="11.77734375" customWidth="1"/>
+    <col min="18" max="18" width="18.6640625" customWidth="1"/>
+    <col min="19" max="19" width="62.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="30" thickBot="1">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:19" ht="30" thickBot="1">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
     </row>
-    <row r="2" spans="1:21" ht="23" thickTop="1"/>
-    <row r="3" spans="1:21">
+    <row r="2" spans="1:19" ht="23" thickTop="1"/>
+    <row r="3" spans="1:19">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -871,59 +831,55 @@
       </c>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:21">
-      <c r="M4" t="s">
+    <row r="4" spans="1:19">
+      <c r="K4" t="s">
+        <v>15</v>
+      </c>
+      <c r="P4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="29"/>
+      <c r="D5" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="29"/>
+      <c r="F5" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="29"/>
+      <c r="H5" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="29"/>
+      <c r="K5" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="P5" t="s">
         <v>16</v>
       </c>
-      <c r="R4" t="s">
+      <c r="Q5" t="s">
+        <v>3</v>
+      </c>
+      <c r="R5" t="s">
         <v>20</v>
       </c>
+      <c r="S5" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="5" spans="1:21">
-      <c r="A5" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="I5" s="12"/>
-      <c r="J5" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="K5" s="12"/>
-      <c r="M5" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="R5" t="s">
-        <v>17</v>
-      </c>
-      <c r="S5" t="s">
-        <v>3</v>
-      </c>
-      <c r="T5" t="s">
-        <v>21</v>
-      </c>
-      <c r="U5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21">
-      <c r="A6" s="10"/>
+    <row r="6" spans="1:19">
+      <c r="A6" s="27"/>
       <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
@@ -948,279 +904,217 @@
       <c r="I6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="R6" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="S6" s="37" t="s">
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="P6" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q6" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="T6" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="U6" s="37" t="s">
-        <v>25</v>
+      <c r="R6" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="S6" s="25" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:19">
       <c r="A7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="23"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="R7" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="S7" s="37" t="s">
+      <c r="B7" s="9"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="34"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
+      <c r="P7" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q7" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="T7" s="37" t="s">
+      <c r="R7" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="S7" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="U7" s="37" t="s">
-        <v>24</v>
-      </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:19">
       <c r="A8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="27">
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="15">
         <v>0</v>
       </c>
-      <c r="E8" s="28"/>
-      <c r="F8" s="27">
+      <c r="E8" s="16"/>
+      <c r="F8" s="15">
         <v>0</v>
       </c>
-      <c r="G8" s="30"/>
-      <c r="H8" s="27">
+      <c r="G8" s="18"/>
+      <c r="H8" s="15">
         <v>0</v>
       </c>
-      <c r="I8" s="28"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="26"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="R8" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="S8" s="37" t="s">
+      <c r="I8" s="16"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
+      <c r="P8" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q8" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="T8" s="37" t="s">
+      <c r="R8" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="S8" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="U8" s="37" t="s">
-        <v>24</v>
-      </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:19">
       <c r="A9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="K9" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="R9" s="37" t="s">
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="20"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="P9" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q9" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="R9" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="S9" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="T9" s="37" t="s">
+      <c r="S9" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="U9" s="37" t="s">
-        <v>30</v>
-      </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:19">
       <c r="A10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="K10" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="R10" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="S10" s="37" t="s">
+      <c r="B10" s="11"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="16"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+      <c r="P10" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q10" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="T10" s="37" t="s">
+      <c r="R10" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="S10" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="U10" s="37" t="s">
-        <v>32</v>
-      </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:19">
       <c r="A11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="K11" s="43" t="s">
-        <v>26</v>
-      </c>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
-      <c r="R11" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="S11" s="37" t="s">
+      <c r="B11" s="9"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="23"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
+      <c r="P11" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q11" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="T11" s="37" t="s">
+      <c r="R11" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="S11" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="U11" s="37" t="s">
-        <v>34</v>
-      </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:19">
       <c r="A12" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="K12" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="16"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="31"/>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:19">
       <c r="A13" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="K13" s="43" t="s">
-        <v>26</v>
-      </c>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
-    </row>
-    <row r="14" spans="1:21">
-      <c r="A14" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="K14" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" s="23"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="7">
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="B5:C5"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="M5:P14"/>
-    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="K5:N13"/>
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="F5:G5"/>
   </mergeCells>

--- a/_ToDo/Scoring Matrix.xlsx
+++ b/_ToDo/Scoring Matrix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/loicveirman/Documents/GitHub/Pimp-My-Directory/_ToDo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA4A346C-85B1-2342-BB7F-15AC46C095DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B162B9F-980F-6045-88CC-5C2434BF2A86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="26380" yWindow="540" windowWidth="50640" windowHeight="28220" xr2:uid="{65454DCD-A632-5C41-82AD-606BA14167F1}"/>
   </bookViews>
@@ -795,7 +795,7 @@
   <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22"/>
@@ -1082,7 +1082,9 @@
       <c r="E12" s="16"/>
       <c r="F12" s="17"/>
       <c r="G12" s="18"/>
-      <c r="H12" s="17"/>
+      <c r="H12" s="15">
+        <v>0.1</v>
+      </c>
       <c r="I12" s="16"/>
       <c r="K12" s="31"/>
       <c r="L12" s="31"/>

--- a/_ToDo/Scoring Matrix.xlsx
+++ b/_ToDo/Scoring Matrix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/loicveirman/Documents/GitHub/Pimp-My-Directory/_ToDo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B162B9F-980F-6045-88CC-5C2434BF2A86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{809B338C-59B1-0D4E-8154-58AED4A8432C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26380" yWindow="540" windowWidth="50640" windowHeight="28220" xr2:uid="{65454DCD-A632-5C41-82AD-606BA14167F1}"/>
+    <workbookView xWindow="1060" yWindow="540" windowWidth="25320" windowHeight="28220" xr2:uid="{65454DCD-A632-5C41-82AD-606BA14167F1}"/>
   </bookViews>
   <sheets>
     <sheet name="HmD 1.0.0" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="36">
   <si>
     <t>SCORING MATRIX</t>
   </si>
@@ -80,9 +80,6 @@
     <t>Win Srv 2008</t>
   </si>
   <si>
-    <t>Win Srv 2003</t>
-  </si>
-  <si>
     <t>Notes:</t>
   </si>
   <si>
@@ -111,9 +108,6 @@
   </si>
   <si>
     <t>Check code, seems to work only on 2022. Works on second run.</t>
-  </si>
-  <si>
-    <t>KO</t>
   </si>
   <si>
     <t>PingCastle compute a risk exposure (target: 0%).
@@ -141,13 +135,25 @@
   </si>
   <si>
     <t>LAPS installation has failed (error on screen)</t>
+  </si>
+  <si>
+    <t>WinSrv 2022 en</t>
+  </si>
+  <si>
+    <t>Could not identify how to setu pthe default pwd.</t>
+  </si>
+  <si>
+    <t>Not working on first run, but works on second run…</t>
+  </si>
+  <si>
+    <t>Win Srv 2012r2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="14"/>
       <color theme="1"/>
@@ -197,23 +203,16 @@
       <name val="Poppins-Light"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FF00B050"/>
-      <name val="Poppins-Light"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Poppins-Light"/>
-    </font>
-    <font>
       <strike/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Poppins-Light"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Poppins-Light"/>
     </font>
   </fonts>
   <fills count="8">
@@ -453,7 +452,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
@@ -495,37 +494,7 @@
     <xf numFmtId="9" fontId="0" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
@@ -554,6 +523,33 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -563,7 +559,13 @@
     <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
     <cellStyle name="Titre" xfId="2" builtinId="15"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -577,8 +579,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{74A0EFC9-44C1-8542-A79B-ABEE2E27F50F}" name="Tableau1" displayName="Tableau1" ref="P5:S11" totalsRowShown="0">
-  <autoFilter ref="P5:S11" xr:uid="{74A0EFC9-44C1-8542-A79B-ABEE2E27F50F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{74A0EFC9-44C1-8542-A79B-ABEE2E27F50F}" name="Tableau1" displayName="Tableau1" ref="P5:S15" totalsRowShown="0">
+  <autoFilter ref="P5:S15" xr:uid="{74A0EFC9-44C1-8542-A79B-ABEE2E27F50F}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{618D3CCF-1CED-7C4A-8418-5829ED2B56C9}" name="OS"/>
     <tableColumn id="2" xr3:uid="{D6659A65-2B54-2349-842B-34CA3657B08B}" name="DFL"/>
@@ -792,10 +794,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A1518DF-B98A-CB44-9D73-BA4BD0420A53}">
-  <dimension ref="A1:S13"/>
+  <dimension ref="A1:S15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22"/>
@@ -809,17 +811,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="30" thickBot="1">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
     </row>
     <row r="2" spans="1:19" ht="23" thickTop="1"/>
     <row r="3" spans="1:19">
@@ -833,53 +835,53 @@
     </row>
     <row r="4" spans="1:19">
       <c r="K4" t="s">
+        <v>14</v>
+      </c>
+      <c r="P4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="19"/>
+      <c r="D5" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="19"/>
+      <c r="F5" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="19"/>
+      <c r="H5" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="19"/>
+      <c r="K5" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="P5" t="s">
         <v>15</v>
-      </c>
-      <c r="P4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19">
-      <c r="A5" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="29"/>
-      <c r="F5" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="29"/>
-      <c r="H5" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="I5" s="29"/>
-      <c r="K5" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="P5" t="s">
-        <v>16</v>
       </c>
       <c r="Q5" t="s">
         <v>3</v>
       </c>
       <c r="R5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="S5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="27"/>
+      <c r="A6" s="17"/>
       <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
@@ -904,21 +906,21 @@
       <c r="I6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="P6" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q6" s="25" t="s">
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="P6" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q6" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="R6" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="S6" s="25" t="s">
-        <v>24</v>
+      <c r="R6" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="S6" s="15" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -927,27 +929,27 @@
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="10"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="34"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="31"/>
-      <c r="P7" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q7" s="25" t="s">
+      <c r="D7" s="23"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="24"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="P7" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q7" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="R7" s="25" t="s">
+      <c r="R7" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="S7" s="15" t="s">
         <v>22</v>
-      </c>
-      <c r="S7" s="25" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -956,33 +958,33 @@
       </c>
       <c r="B8" s="11"/>
       <c r="C8" s="12"/>
-      <c r="D8" s="15">
+      <c r="D8" s="26">
         <v>0</v>
       </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="15">
+      <c r="E8" s="27"/>
+      <c r="F8" s="26">
         <v>0</v>
       </c>
-      <c r="G8" s="18"/>
-      <c r="H8" s="15">
+      <c r="G8" s="28"/>
+      <c r="H8" s="26">
         <v>0</v>
       </c>
-      <c r="I8" s="16"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="31"/>
-      <c r="P8" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q8" s="25" t="s">
+      <c r="I8" s="27"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="P8" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q8" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="R8" s="25" t="s">
+      <c r="R8" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="S8" s="15" t="s">
         <v>22</v>
-      </c>
-      <c r="S8" s="25" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -991,27 +993,33 @@
       </c>
       <c r="B9" s="13"/>
       <c r="C9" s="14"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="20"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
-      <c r="P9" s="25" t="s">
+      <c r="D9" s="29">
+        <v>0.2</v>
+      </c>
+      <c r="E9" s="30"/>
+      <c r="F9" s="29">
+        <v>0</v>
+      </c>
+      <c r="G9" s="31"/>
+      <c r="H9" s="29">
+        <v>0</v>
+      </c>
+      <c r="I9" s="30"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="P9" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q9" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="R9" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="S9" s="15" t="s">
         <v>27</v>
-      </c>
-      <c r="Q9" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="R9" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="S9" s="25" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -1020,27 +1028,33 @@
       </c>
       <c r="B10" s="11"/>
       <c r="C10" s="12"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="16"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="31"/>
-      <c r="P10" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q10" s="25" t="s">
+      <c r="D10" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="E10" s="27"/>
+      <c r="F10" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="G10" s="28"/>
+      <c r="H10" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="I10" s="27"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="P10" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q10" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="R10" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="S10" s="25" t="s">
-        <v>31</v>
+      <c r="R10" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="S10" s="15" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1049,27 +1063,33 @@
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="10"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="23"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="31"/>
-      <c r="P11" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q11" s="25" t="s">
+      <c r="D11" s="32">
+        <v>0.2</v>
+      </c>
+      <c r="E11" s="33"/>
+      <c r="F11" s="32">
+        <v>0.2</v>
+      </c>
+      <c r="G11" s="34"/>
+      <c r="H11" s="32">
+        <v>0.2</v>
+      </c>
+      <c r="I11" s="33"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="P11" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q11" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="R11" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="S11" s="25" t="s">
-        <v>33</v>
+      <c r="R11" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="S11" s="15" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1078,37 +1098,76 @@
       </c>
       <c r="B12" s="11"/>
       <c r="C12" s="12"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="15">
-        <v>0.1</v>
-      </c>
-      <c r="I12" s="16"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="31"/>
+      <c r="D12" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="E12" s="27"/>
+      <c r="F12" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="G12" s="28"/>
+      <c r="H12" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="I12" s="27"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="P12" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>35</v>
+      </c>
+      <c r="R12" t="s">
+        <v>21</v>
+      </c>
+      <c r="S12" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="13" spans="1:19">
-      <c r="A13" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="22" t="s">
+      <c r="P13" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>8</v>
+      </c>
+      <c r="R13" t="s">
+        <v>20</v>
+      </c>
+      <c r="S13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="P14" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>8</v>
+      </c>
+      <c r="R14" t="s">
+        <v>20</v>
+      </c>
+      <c r="S14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="P15" t="s">
         <v>25</v>
       </c>
-      <c r="I13" s="23"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="31"/>
+      <c r="Q15" t="s">
+        <v>8</v>
+      </c>
+      <c r="R15" t="s">
+        <v>20</v>
+      </c>
+      <c r="S15" t="s">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1116,10 +1175,15 @@
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="A1:I1"/>
-    <mergeCell ref="K5:N13"/>
+    <mergeCell ref="K5:N12"/>
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="F5:G5"/>
   </mergeCells>
+  <conditionalFormatting sqref="D8:I12">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>0.26</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/_ToDo/Scoring Matrix.xlsx
+++ b/_ToDo/Scoring Matrix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/loicveirman/Documents/GitHub/Pimp-My-Directory/_ToDo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{809B338C-59B1-0D4E-8154-58AED4A8432C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAFF12CB-8258-A64E-BD41-82965D333277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="540" windowWidth="25320" windowHeight="28220" xr2:uid="{65454DCD-A632-5C41-82AD-606BA14167F1}"/>
+    <workbookView xWindow="26400" yWindow="540" windowWidth="50640" windowHeight="28220" xr2:uid="{65454DCD-A632-5C41-82AD-606BA14167F1}"/>
   </bookViews>
   <sheets>
     <sheet name="HmD 1.0.0" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="37">
   <si>
     <t>SCORING MATRIX</t>
   </si>
@@ -147,6 +147,9 @@
   </si>
   <si>
     <t>Win Srv 2012r2</t>
+  </si>
+  <si>
+    <t>AdminCount is Null on critical object…</t>
   </si>
 </sst>
 </file>
@@ -215,7 +218,7 @@
       <name val="Poppins-Light"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -257,6 +260,12 @@
         <bgColor theme="2"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="16">
     <border>
@@ -452,7 +461,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
@@ -552,6 +561,7 @@
     <xf numFmtId="9" fontId="9" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Calcul" xfId="3" builtinId="22"/>
@@ -579,8 +589,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{74A0EFC9-44C1-8542-A79B-ABEE2E27F50F}" name="Tableau1" displayName="Tableau1" ref="P5:S15" totalsRowShown="0">
-  <autoFilter ref="P5:S15" xr:uid="{74A0EFC9-44C1-8542-A79B-ABEE2E27F50F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{74A0EFC9-44C1-8542-A79B-ABEE2E27F50F}" name="Tableau1" displayName="Tableau1" ref="P5:S16" totalsRowShown="0">
+  <autoFilter ref="P5:S16" xr:uid="{74A0EFC9-44C1-8542-A79B-ABEE2E27F50F}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{618D3CCF-1CED-7C4A-8418-5829ED2B56C9}" name="OS"/>
     <tableColumn id="2" xr3:uid="{D6659A65-2B54-2349-842B-34CA3657B08B}" name="DFL"/>
@@ -794,10 +804,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A1518DF-B98A-CB44-9D73-BA4BD0420A53}">
-  <dimension ref="A1:S15"/>
+  <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22"/>
@@ -994,7 +1004,7 @@
       <c r="B9" s="13"/>
       <c r="C9" s="14"/>
       <c r="D9" s="29">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E9" s="30"/>
       <c r="F9" s="29">
@@ -1029,15 +1039,15 @@
       <c r="B10" s="11"/>
       <c r="C10" s="12"/>
       <c r="D10" s="26">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E10" s="27"/>
       <c r="F10" s="26">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G10" s="28"/>
       <c r="H10" s="26">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I10" s="27"/>
       <c r="K10" s="21"/>
@@ -1064,15 +1074,15 @@
       <c r="B11" s="9"/>
       <c r="C11" s="10"/>
       <c r="D11" s="32">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E11" s="33"/>
       <c r="F11" s="32">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G11" s="34"/>
       <c r="H11" s="32">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I11" s="33"/>
       <c r="K11" s="21"/>
@@ -1098,75 +1108,77 @@
       </c>
       <c r="B12" s="11"/>
       <c r="C12" s="12"/>
-      <c r="D12" s="26">
-        <v>0.2</v>
-      </c>
+      <c r="D12" s="26"/>
       <c r="E12" s="27"/>
-      <c r="F12" s="26">
-        <v>0.2</v>
-      </c>
+      <c r="F12" s="26"/>
       <c r="G12" s="28"/>
-      <c r="H12" s="26">
-        <v>0.2</v>
-      </c>
+      <c r="H12" s="26"/>
       <c r="I12" s="27"/>
       <c r="K12" s="21"/>
       <c r="L12" s="21"/>
       <c r="M12" s="21"/>
       <c r="N12" s="21"/>
-      <c r="P12" t="s">
+      <c r="P12" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="Q12" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="R12" t="s">
+      <c r="R12" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="S12" t="s">
+      <c r="S12" s="35" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:19">
-      <c r="P13" t="s">
+      <c r="P13" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="Q13" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="R13" t="s">
+      <c r="R13" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="S13" t="s">
+      <c r="S13" s="15" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:19">
-      <c r="P14" t="s">
+      <c r="P14" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="Q14" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="R14" t="s">
+      <c r="R14" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="S14" t="s">
+      <c r="S14" s="15" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:19">
-      <c r="P15" t="s">
+      <c r="P15" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="Q15" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="R15" t="s">
+      <c r="R15" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="S15" t="s">
+      <c r="S15" s="15" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="15"/>
+      <c r="S16" s="15" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/_ToDo/Scoring Matrix.xlsx
+++ b/_ToDo/Scoring Matrix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/loicveirman/Documents/GitHub/Pimp-My-Directory/_ToDo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAFF12CB-8258-A64E-BD41-82965D333277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E372B14-4D6E-A542-A033-FBB48FA67576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="26400" yWindow="540" windowWidth="50640" windowHeight="28220" xr2:uid="{65454DCD-A632-5C41-82AD-606BA14167F1}"/>
   </bookViews>
@@ -36,14 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="57">
   <si>
     <t>SCORING MATRIX</t>
   </si>
   <si>
-    <t>PING CASTLE</t>
-  </si>
-  <si>
     <t>3.2.0.1</t>
   </si>
   <si>
@@ -84,9 +81,6 @@
   </si>
   <si>
     <t>OS</t>
-  </si>
-  <si>
-    <t>Advise Sol.</t>
   </si>
   <si>
     <t>WinSrv 2019 en</t>
@@ -149,14 +143,80 @@
     <t>Win Srv 2012r2</t>
   </si>
   <si>
-    <t>AdminCount is Null on critical object…</t>
+    <t>PC</t>
+  </si>
+  <si>
+    <t>PK</t>
+  </si>
+  <si>
+    <t>4.2</t>
+  </si>
+  <si>
+    <t>PING CASTLE (PC)</t>
+  </si>
+  <si>
+    <t>PURPLE KNIGHT (PK)</t>
+  </si>
+  <si>
+    <t>Permission changes on AdminSDHolder object</t>
+  </si>
+  <si>
+    <t>To ignore: the alert concern the modification due to domain creation</t>
+  </si>
+  <si>
+    <t>gMSA not in use</t>
+  </si>
+  <si>
+    <t>To ignore: there no needs for gMSA at this stage</t>
+  </si>
+  <si>
+    <t>Built-in domain Administrator account used within the last two weeks</t>
+  </si>
+  <si>
+    <t>To ignore: this is the only account at this stage</t>
+  </si>
+  <si>
+    <t>Changes to privileged group membership in the last 7 days</t>
+  </si>
+  <si>
+    <t>To ignore: this is the result of the domain build.</t>
+  </si>
+  <si>
+    <t>LDAP signing is not required on Domain Controllers</t>
+  </si>
+  <si>
+    <t>To be enabled.</t>
+  </si>
+  <si>
+    <t>Changes to Default Domain Policy or Default Domain Controllers Policy in the last 7 days</t>
+  </si>
+  <si>
+    <t>To ignore: this is expected.</t>
+  </si>
+  <si>
+    <t>RC4 or DES encryption type are supported by Domain Controllers</t>
+  </si>
+  <si>
+    <t>Configure encryption types allowed for Kerberos and select only AES-128, AES-256 encryption types, to a GPO that affects the Domain Controllers container.</t>
+  </si>
+  <si>
+    <t>Win Srv 2008r2</t>
+  </si>
+  <si>
+    <t>Advised Solution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protected Users group not in use </t>
+  </si>
+  <si>
+    <t>Add Administrator to Protected Users.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="14"/>
       <color theme="1"/>
@@ -184,19 +244,9 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Poppins-Light"/>
-    </font>
-    <font>
       <b/>
       <sz val="14"/>
       <color theme="7"/>
-      <name val="Poppins-Light"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="3"/>
       <name val="Poppins-Light"/>
     </font>
     <font>
@@ -206,19 +256,38 @@
       <name val="Poppins-Light"/>
     </font>
     <font>
-      <strike/>
+      <b/>
       <sz val="14"/>
-      <color theme="1"/>
       <name val="Poppins-Light"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Poppins-Light"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="3"/>
+      <name val="Poppins-Light"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Poppins-Light"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1" tint="0.14993743705557422"/>
+      <name val="Poppins-Light"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <name val="Poppins-Light"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -232,32 +301,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="lightUp">
-        <fgColor theme="0" tint="-0.24994659260841701"/>
-        <bgColor theme="2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="lightUp">
-        <fgColor theme="0" tint="-0.24994659260841701"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="lightUp">
-        <fgColor theme="4"/>
-        <bgColor theme="2"/>
       </patternFill>
     </fill>
     <fill>
@@ -266,8 +311,44 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightUp">
+        <fgColor theme="0" tint="-0.24994659260841701"/>
+        <bgColor theme="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightUp">
+        <fgColor theme="4"/>
+        <bgColor theme="0"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -303,77 +384,15 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
+      <right style="hair">
+        <color theme="1" tint="0.499984740745262"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -384,9 +403,7 @@
       <top style="thin">
         <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -397,13 +414,55 @@
       <top style="thin">
         <color rgb="FF7F7F7F"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="hair">
@@ -414,7 +473,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="hair">
@@ -429,23 +497,64 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
+      <left/>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -454,128 +563,183 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="9" fillId="5" borderId="3">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="7" borderId="3">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="6" borderId="13">
+      <alignment horizontal="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="5" borderId="3" xfId="4">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="7" borderId="3" xfId="5">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="9" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="9" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="10" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="8" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="8" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="9" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="9" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="8" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="8" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="5" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="9" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="9" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="8" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="8" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="7" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="7">
     <cellStyle name="Calcul" xfId="3" builtinId="22"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="PC GREEN 1" xfId="4" xr:uid="{A6AE1FBD-284E-6B4F-9349-C9CBB129B4D3}"/>
+    <cellStyle name="PC GREEN 2" xfId="5" xr:uid="{E50EC2B9-0730-034D-A60D-03BA2DE1B669}"/>
+    <cellStyle name="PK C" xfId="6" xr:uid="{9BBF953A-60DE-444A-A075-E93DCE801B7C}"/>
     <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
     <cellStyle name="Titre" xfId="2" builtinId="15"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -589,15 +753,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{74A0EFC9-44C1-8542-A79B-ABEE2E27F50F}" name="Tableau1" displayName="Tableau1" ref="P5:S16" totalsRowShown="0">
-  <autoFilter ref="P5:S16" xr:uid="{74A0EFC9-44C1-8542-A79B-ABEE2E27F50F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{74A0EFC9-44C1-8542-A79B-ABEE2E27F50F}" name="Tableau1" displayName="Tableau1" ref="L6:O27" totalsRowShown="0">
+  <autoFilter ref="L6:O27" xr:uid="{74A0EFC9-44C1-8542-A79B-ABEE2E27F50F}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{618D3CCF-1CED-7C4A-8418-5829ED2B56C9}" name="OS"/>
     <tableColumn id="2" xr3:uid="{D6659A65-2B54-2349-842B-34CA3657B08B}" name="DFL"/>
     <tableColumn id="3" xr3:uid="{492BE08A-F01D-9345-8055-76B3C5D00BF2}" name="Alert"/>
-    <tableColumn id="4" xr3:uid="{61A8E3D9-0DA4-F443-A20D-32E019DD63E8}" name="Advise Sol."/>
+    <tableColumn id="4" xr3:uid="{61A8E3D9-0DA4-F443-A20D-32E019DD63E8}" name="Advised Solution"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -804,398 +968,591 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A1518DF-B98A-CB44-9D73-BA4BD0420A53}">
-  <dimension ref="A1:S16"/>
+  <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="9" width="7.77734375" customWidth="1"/>
-    <col min="16" max="16" width="16" customWidth="1"/>
-    <col min="17" max="17" width="11.77734375" customWidth="1"/>
-    <col min="18" max="18" width="18.6640625" customWidth="1"/>
-    <col min="19" max="19" width="62.21875" customWidth="1"/>
+    <col min="10" max="11" width="2.77734375" customWidth="1"/>
+    <col min="12" max="12" width="14.21875" customWidth="1"/>
+    <col min="13" max="13" width="12.44140625" customWidth="1"/>
+    <col min="14" max="14" width="69.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="72.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="30" thickBot="1">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:15" ht="30" thickBot="1">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-    </row>
-    <row r="2" spans="1:19" ht="23" thickTop="1"/>
-    <row r="3" spans="1:19">
-      <c r="A3" s="2" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+    </row>
+    <row r="2" spans="1:15" ht="23" thickTop="1"/>
+    <row r="3" spans="1:15">
+      <c r="A3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:15" ht="23" thickBot="1">
+      <c r="L5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="1:19">
-      <c r="K4" t="s">
+      <c r="B6" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="32"/>
+      <c r="D6" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="32"/>
+      <c r="F6" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="32"/>
+      <c r="H6" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="32"/>
+      <c r="L6" t="s">
         <v>14</v>
       </c>
-      <c r="P4" t="s">
+      <c r="M6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s">
+        <v>17</v>
+      </c>
+      <c r="O6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="30"/>
+      <c r="B7" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="L7" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="N7" s="38" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:19">
-      <c r="A5" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="19"/>
-      <c r="F5" s="22" t="s">
+      <c r="O7" s="38" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="16"/>
+      <c r="L8" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="M8" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="19"/>
-      <c r="H5" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="I5" s="19"/>
-      <c r="K5" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="P5" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>3</v>
-      </c>
-      <c r="R5" t="s">
+      <c r="N8" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="S5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19">
-      <c r="A6" s="17"/>
-      <c r="B6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="P6" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q6" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="R6" s="15" t="s">
+      <c r="O8" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="S6" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19">
-      <c r="A7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="24"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="P7" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q7" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="R7" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="S7" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19">
-      <c r="A8" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="26">
-        <v>0</v>
-      </c>
-      <c r="E8" s="27"/>
-      <c r="F8" s="26">
-        <v>0</v>
-      </c>
-      <c r="G8" s="28"/>
-      <c r="H8" s="26">
-        <v>0</v>
-      </c>
-      <c r="I8" s="27"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="P8" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q8" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="R8" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="S8" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19">
-      <c r="A9" s="8" t="s">
-        <v>7</v>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="12" t="s">
+        <v>5</v>
       </c>
       <c r="B9" s="13"/>
       <c r="C9" s="14"/>
-      <c r="D9" s="29">
+      <c r="D9" s="7">
         <v>0</v>
       </c>
-      <c r="E9" s="30"/>
-      <c r="F9" s="29">
+      <c r="E9" s="11">
+        <v>0.83</v>
+      </c>
+      <c r="F9" s="7">
         <v>0</v>
       </c>
-      <c r="G9" s="31"/>
-      <c r="H9" s="29">
+      <c r="G9" s="17"/>
+      <c r="H9" s="7">
         <v>0</v>
       </c>
-      <c r="I9" s="30"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
-      <c r="P9" s="15" t="s">
+      <c r="I9" s="18"/>
+      <c r="L9" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="M9" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="O9" s="38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="20"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="E10" s="22"/>
+      <c r="F10" s="7">
+        <v>0</v>
+      </c>
+      <c r="G10" s="22"/>
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="23"/>
+      <c r="L10" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="M10" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="O10" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="Q9" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="R9" s="15" t="s">
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="E11" s="17"/>
+      <c r="F11" s="7">
+        <v>0</v>
+      </c>
+      <c r="G11" s="17"/>
+      <c r="H11" s="7">
+        <v>0</v>
+      </c>
+      <c r="I11" s="18"/>
+      <c r="L11" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="M11" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="N11" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="S9" s="15" t="s">
+      <c r="O11" s="38" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
-      <c r="A10" s="7" t="s">
+    <row r="12" spans="1:15">
+      <c r="A12" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="26">
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="E12" s="17"/>
+      <c r="F12" s="7">
         <v>0</v>
       </c>
-      <c r="E10" s="27"/>
-      <c r="F10" s="26">
+      <c r="G12" s="17"/>
+      <c r="H12" s="7">
         <v>0</v>
       </c>
-      <c r="G10" s="28"/>
-      <c r="H10" s="26">
-        <v>0</v>
-      </c>
-      <c r="I10" s="27"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
-      <c r="P10" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q10" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="R10" s="15" t="s">
+      <c r="I12" s="18"/>
+      <c r="L12" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="M12" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="N12" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="S10" s="15" t="s">
+      <c r="O12" s="38" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
-      <c r="A11" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="32">
-        <v>0</v>
-      </c>
-      <c r="E11" s="33"/>
-      <c r="F11" s="32">
-        <v>0</v>
-      </c>
-      <c r="G11" s="34"/>
-      <c r="H11" s="32">
-        <v>0</v>
-      </c>
-      <c r="I11" s="33"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
-      <c r="P11" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q11" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="R11" s="15" t="s">
+    <row r="13" spans="1:15" ht="23" thickBot="1">
+      <c r="A13" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="25"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="28"/>
+      <c r="L13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="S11" s="15" t="s">
+      <c r="M13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O13" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
-      <c r="A12" s="7" t="s">
+    <row r="14" spans="1:15">
+      <c r="L14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="27"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
-      <c r="P12" s="35" t="s">
+      <c r="L15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="22" customHeight="1">
+      <c r="A16" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="L16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="34"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="L17" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="M17" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="N17" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="O17" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="Q12" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="R12" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="S12" s="35" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19">
-      <c r="P13" s="15" t="s">
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="34"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="L18" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="M18" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="N18" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="O18" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="Q13" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="R13" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="S13" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19">
-      <c r="P14" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q14" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="R14" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="S14" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19">
-      <c r="P15" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q15" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="R15" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="S15" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19">
-      <c r="P16" s="15"/>
-      <c r="Q16" s="15"/>
-      <c r="R16" s="15"/>
-      <c r="S16" s="15" t="s">
-        <v>36</v>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="34"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="L19" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="M19" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="N19" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="O19" s="38" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="34"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+      <c r="L20" t="s">
+        <v>30</v>
+      </c>
+      <c r="M20" t="s">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>39</v>
+      </c>
+      <c r="O20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="34"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
+      <c r="L21" t="s">
+        <v>30</v>
+      </c>
+      <c r="M21" t="s">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>41</v>
+      </c>
+      <c r="O21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="34"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
+      <c r="L22" t="s">
+        <v>30</v>
+      </c>
+      <c r="M22" t="s">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>43</v>
+      </c>
+      <c r="O22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="34"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="L23" t="s">
+        <v>30</v>
+      </c>
+      <c r="M23" t="s">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>45</v>
+      </c>
+      <c r="O23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="L24" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="N24" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="O24" s="35" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="L25" t="s">
+        <v>30</v>
+      </c>
+      <c r="M25" t="s">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>49</v>
+      </c>
+      <c r="O25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="46">
+      <c r="L26" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="M26" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="N26" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="O26" s="37" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="23">
+      <c r="L27" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>55</v>
+      </c>
+      <c r="O27" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="A16:I23"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="B6:C6"/>
     <mergeCell ref="A1:I1"/>
-    <mergeCell ref="K5:N12"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="F6:G6"/>
   </mergeCells>
-  <conditionalFormatting sqref="D8:I12">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
-      <formula>0.26</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
